--- a/优美句子.xlsx
+++ b/优美句子.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>历史文化</t>
   </si>
@@ -27,6 +27,24 @@
     <t>家庭</t>
   </si>
   <si>
+    <t>名人名言</t>
+  </si>
+  <si>
+    <t>春节</t>
+  </si>
+  <si>
+    <t>创新</t>
+  </si>
+  <si>
+    <t>党的优秀品格</t>
+  </si>
+  <si>
+    <t>责任</t>
+  </si>
+  <si>
+    <t>青年</t>
+  </si>
+  <si>
     <t>习近平总书记指出：对历史文化特别是先人传承下来的价值理念和道德规范，要坚持古为今用、推陈出新，有鉴别地加以对待，有扬弃地予以继承，努力用中华民族创造的一切精神财富来以文化人、以文育人。</t>
   </si>
   <si>
@@ -36,16 +54,76 @@
     <t>“天下之本在国，国之本在家”，注重家庭、注重家教、注重家风，必将使千千万万个家庭成为国家发展、民族进步、社会和谐的重要基点</t>
   </si>
   <si>
+    <t>世界上只有一种英雄主义，那就是见证了生活的本质后，依然热爱生活。--罗曼.罗兰</t>
+  </si>
+  <si>
+    <t>春节是什么？小时候，春节是丰盛的年夜饭，是盼望的压岁钱。长大后，春节是漫漫的回家路，是满满的幸福感。春节，以亲情为伴，以文化之名，向时间和生命致以一年一度的问候。</t>
+  </si>
+  <si>
+    <t>3个赛区26个场馆实现100%清洁能源供电，“张北的风点亮冬奥的灯”；中国自主攻坚，打破国外技术封锁，造出冰状雪；山地赛场，有冬奥气象预报技术体系作支撑，实现“百米级、分钟级”精准预报……北京冬奥会上，科技创新助力冰雪激情，展现出中国强大的科技攻关能力，彰显了坚持开拓创新的时代意义。</t>
+  </si>
+  <si>
+    <t>我们党在内忧外患中诞生、在历经磨难中成长、在攻坚克难中壮大，为了人民、国家、民族，为了理想信念，无论敌人如何强大、道路如何艰险、挑战如何严峻，我们党总是绝不畏惧、绝不退缩，不怕牺牲、百折不挠。</t>
+  </si>
+  <si>
+    <t>人人甘当承重梁，人人敢顶千斤重</t>
+  </si>
+  <si>
+    <t>一个人可以有很多志向，但人生最重要的志向应该同祖国和人民联系在一起。如今，我们正昂首阔步走在新的伟大征程上，乡村振兴、创新创业、科研攻关……无数舞台正等待广大青年一试身手。青年人更应该结合自身兴趣与所学知识，到祖国和人民最需要的地方实现人生价值。只有把小我融入祖国的大我、人民的大我之中，与时代同步伐、与人民共命运，才能让青春绽放更亮丽的色彩。</t>
+  </si>
+  <si>
+    <t>从婉丽妩媚的昆曲，到高亢嘹亮的唢呐；从巧夺天工的刺绣，到璀璨艳丽的唐卡……多姿多彩的非物质文化遗产，记录着传统的生产生活方式，见证着绵延不息的文明传承，是我们宝贵的精神文化财富</t>
+  </si>
+  <si>
     <t>所有成绩的取得，无不源于日常的刻苦训练；平日流下的汗水，都将成为浇灌成功之花的雨露</t>
   </si>
   <si>
+    <t>习近平总书记强调：“读书可以让人保持思想活力，让人得到智慧启发，让人滋养浩然之气。</t>
+  </si>
+  <si>
+    <t>创新是一个民族进步的灵魂，是一个国家兴旺发达的不竭动力，也是中华民族最深沉的民族禀赋</t>
+  </si>
+  <si>
+    <t>不经一番寒彻骨，怎得梅花扑鼻香？我们处在前所未有的变革时代，干着前无古人的伟大事业，如果知识不够、眼界不宽、能力不强，就会耽误事。面对纷繁复杂的工作局面，必须勇于担当、善于作为，事不避难、义不逃责，不断激发干事创业活力；必须起而行之、勇挑重担，经风雨、见世面，真刀真枪锤炼能力，以过硬本领展现作为、不辱使命，以知重负重、攻坚克难的实际行动，诠释对党的忠诚、对人民的赤诚。</t>
+  </si>
+  <si>
+    <t>有些青年人不是没有目标，只是改变得太快。学语言、考证书……开年时有许多想法，到年末发现真正坚持下来的却寥寥无几。有人说，看到目标不可实现，就应该早些转换方向，避免浪费时间和精力。可是，一些人只是在略作尝试、稍遇挫折之后，就轻率地断言“我做不到”。事实上，奋斗不仅要靠激情支撑，更要靠汗水浇灌。克服奋斗路上的困难，不仅要有敢闯敢干的勇气、开拓进取的品格，更要有恒久的坚持、踏实的付出。</t>
+  </si>
+  <si>
+    <t>历史只会眷顾坚定者、奋进者、搏击者，而不会等待犹豫者、懈怠者、畏难者</t>
+  </si>
+  <si>
     <t>山以险峻成其壁立千仞，海以奔腾就其风涛万里。道路越崎岖，越需要凝心聚力、勇往直前；前程越远大，越需要龙骧虎步、跃马扬鞭。只要我们以更加勇毅的担当、更加务实的行动埋头苦干，就一定能在时代滚滚向前的洪流中成为搏击风浪的弄潮儿，在奋斗的长卷里书写浓墨重彩的新篇章。</t>
   </si>
   <si>
+    <t>胜非其难也，持之者其难也。</t>
+  </si>
+  <si>
+    <t>一百年来，我们党领导人民披荆斩棘、上下求索、奋力开拓、锐意进取，不断推进理论创新、实践创新、制度创新、文化创新以及其他各方面创新，敢为天下先，走出了前人没有走出的路，任何艰难险阻都没能阻挡住党和人民前进的步伐。</t>
+  </si>
+  <si>
+    <t>青年人尤其要做追梦路上的奋进者、开拓者、搏击者，让青春在服务人民、奉献祖国的激情奋斗中绽放光芒。</t>
+  </si>
+  <si>
     <t>欲致其高，必丰其基</t>
   </si>
   <si>
+    <t>从简政放权厘清政府和市场关系，到党和国家机构改革提升治理效率；从科技体制改革为创新新引擎点火，到“河长制”“湖长制”激活生态文明建设一池春水，一系列深层次改革举措以制度层面的开拓创新，激发了整个社会的创造活力、创新动力。</t>
+  </si>
+  <si>
+    <t>日月不肯迟，四时相催迫。时间是不等人的，过一年，便要进一步</t>
+  </si>
+  <si>
     <t>你可能认为你可以用一些标签定义我，但你错了，因为我始终是一件正在加工的作品。</t>
+  </si>
+  <si>
+    <t>有风有雨是常态，风雨无阻是心态，风雨兼程是状态</t>
+  </si>
+  <si>
+    <t>百舸争流，奋楫者先；中流击水，勇进者胜。</t>
+  </si>
+  <si>
+    <t>大厦之成，非一木之材也；大海之阔，非一流之归也</t>
   </si>
 </sst>
 </file>
@@ -76,6 +154,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -83,6 +168,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -90,86 +213,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,6 +252,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -204,16 +275,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,187 +306,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,32 +497,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -463,16 +515,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -504,9 +556,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +573,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -527,10 +605,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,137 +617,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -681,6 +759,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1030,21 +1111,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="28.875" customWidth="1"/>
     <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="3" width="29.25" customWidth="1"/>
     <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="5" max="5" width="22.5" customWidth="1"/>
+    <col min="6" max="6" width="21.75" customWidth="1"/>
+    <col min="7" max="7" width="29.125" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
+    <col min="10" max="10" width="34.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:4">
+    <row r="1" s="1" customFormat="1" ht="21" customHeight="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1054,36 +1141,120 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="94.5" spans="1:4">
+    <row r="2" s="2" customFormat="1" ht="158" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="3:3">
+    <row r="3" ht="216" spans="1:10">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" ht="121.5" spans="3:3">
+    <row r="4" s="2" customFormat="1" ht="121.5" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" ht="108" spans="3:10">
       <c r="C5" t="s">
-        <v>8</v>
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="40.5" spans="3:3">
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="3:3">
+      <c r="C7" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="3:3">
+      <c r="C8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" ht="27" spans="3:3">
+      <c r="C9" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
